--- a/APM files/141739658/141739658 IMPORT 2 VID creation copy.xlsx
+++ b/APM files/141739658/141739658 IMPORT 2 VID creation copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141739658/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2413B8-89BA-5944-89A3-C0E9A35277DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4DB998-CCE1-524C-9458-4314C014F4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="26840" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
+    <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26840" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Caliza LLC d b a Landing</t>
   </si>
 </sst>
 </file>
@@ -658,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81CCFE-720E-40D7-A104-13F9DD318DB9}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,6 +789,12 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
       <c r="O2">
         <v>853938516</v>
       </c>
@@ -830,6 +839,12 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
       <c r="O3">
         <v>853938516</v>
       </c>
@@ -874,6 +889,12 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
       <c r="O4">
         <v>853938516</v>
       </c>
@@ -918,6 +939,12 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
       <c r="O5">
         <v>853938516</v>
       </c>
@@ -962,6 +989,12 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
       <c r="O6">
         <v>853938516</v>
       </c>
@@ -1006,6 +1039,12 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
       <c r="O7">
         <v>853938516</v>
       </c>
@@ -1050,6 +1089,12 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
       <c r="O8">
         <v>853938516</v>
       </c>
@@ -1094,6 +1139,12 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
       <c r="O9">
         <v>853938516</v>
       </c>
@@ -1138,6 +1189,12 @@
       <c r="L10" t="s">
         <v>22</v>
       </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
       <c r="O10">
         <v>853938516</v>
       </c>
@@ -1182,6 +1239,12 @@
       <c r="L11" t="s">
         <v>22</v>
       </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
       <c r="O11">
         <v>853938516</v>
       </c>
@@ -1225,6 +1288,12 @@
       </c>
       <c r="L12" t="s">
         <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
       </c>
       <c r="O12">
         <v>853938516</v>
